--- a/Data/Processed/Angiosperms/missing_powo_ipni/Elaeocarpaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Elaeocarpaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hooker's J. Bot. Kew Gard. Misc. 5: 295. 1853 </t>
+          <t>Hooker's J. Bot. Kew Gard. Misc. 5: 295. 1853</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -565,7 +565,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hooker's J. Bot. Kew Gard. Misc. 5: 295. 1853 </t>
+          <t>Hooker's J. Bot. Kew Gard. Misc. 5: 295. 1853</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hooker's J. Bot. Kew Gard. Misc. 5: 296. 1853 </t>
+          <t>Hooker's J. Bot. Kew Gard. Misc. 5: 296. 1853</t>
         </is>
       </c>
       <c r="J4" t="b">
